--- a/Excel-Git.xlsx
+++ b/Excel-Git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shilpamamidipelli/Documents/Git-workspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A8047E-E9FE-5144-8C3A-7370901D998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BCDFF7-F1D4-2C4C-8FA6-8F9CB0B555F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="700" windowWidth="26740" windowHeight="15160" xr2:uid="{4C448357-E82D-5A43-80B9-D6CE84F7C65B}"/>
   </bookViews>
@@ -36,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>test excel sheet version 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test test </t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA288B7-A675-5145-8A73-83546B36C762}">
-  <dimension ref="D6"/>
+  <dimension ref="D6:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,6 +429,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
